--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404298.432553966</v>
+        <v>-1406854.748381216</v>
       </c>
     </row>
     <row r="7">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>139.8060972184436</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>93.63359997376678</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.27223657761516</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>60.12887047130531</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.58042755510668</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>53.55611046890996</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>124.8393622220581</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>74.89477942386853</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>68.90171938503806</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>95.38431235357488</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.35116901583022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>236.9563629512573</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>118.8520688186502</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016461</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>7.40806407902706</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890411</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,19 +1819,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>245.879692121441</v>
+        <v>73.44478684180565</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576149</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.632620083626976</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>90.85912858529824</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>73.22341869628487</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>159.2661870898838</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.94435783112388</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>21.23835815356743</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3032,10 +3032,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652662</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3433,7 +3433,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652662</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1274.539111149739</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C2" t="n">
-        <v>905.5765942093278</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D2" t="n">
-        <v>547.3108956025774</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E2" t="n">
-        <v>547.3108956025774</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>547.3108956025774</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2661.227534881429</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2308.458879611315</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>1934.993121350235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213861</v>
+        <v>1934.993121350235</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080142</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>363.5187033424295</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>363.5187033424295</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4495,43 +4495,43 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>799.6142115756892</v>
       </c>
       <c r="N4" t="n">
-        <v>1147.647612905888</v>
+        <v>1107.914056430633</v>
       </c>
       <c r="O4" t="n">
-        <v>1446.977211826302</v>
+        <v>1407.243655351047</v>
       </c>
       <c r="P4" t="n">
-        <v>1679.584712259961</v>
+        <v>1639.851155784706</v>
       </c>
       <c r="Q4" t="n">
-        <v>1717.461451937231</v>
+        <v>1717.461451937221</v>
       </c>
       <c r="R4" t="n">
-        <v>1717.461451937231</v>
+        <v>1717.461451937221</v>
       </c>
       <c r="S4" t="n">
-        <v>1717.461451937231</v>
+        <v>1525.775567764047</v>
       </c>
       <c r="T4" t="n">
-        <v>1495.694836506757</v>
+        <v>1465.039334964749</v>
       </c>
       <c r="U4" t="n">
-        <v>1206.591969632401</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="V4" t="n">
-        <v>951.9074814265136</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="W4" t="n">
-        <v>662.4903113895531</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X4" t="n">
-        <v>434.5007604915357</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y4" t="n">
-        <v>434.5007604915357</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.069587875903</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1159.107070935491</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>800.841372328741</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>800.841372328741</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>389.8554675391335</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>378.823421424534</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>81.23982103330127</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3271.508740327443</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3065.530992711665</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176916</v>
+        <v>2812.000515985501</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915837</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940025</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>754.647583030232</v>
+        <v>650.5934525793617</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F7" t="n">
         <v>331.5406302391191</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1446.505797040963</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W7" t="n">
-        <v>1157.088627004002</v>
+        <v>1281.024047451149</v>
       </c>
       <c r="X7" t="n">
-        <v>1157.088627004002</v>
+        <v>1053.034496553131</v>
       </c>
       <c r="Y7" t="n">
-        <v>936.2960478604717</v>
+        <v>832.2419174096015</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>936.9705155339545</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>551.1822629357102</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.568951662578</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>2065.221161406442</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
@@ -4881,22 +4881,22 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>700.1577228956174</v>
+        <v>775.9977502341333</v>
       </c>
       <c r="C10" t="n">
-        <v>531.2215399677106</v>
+        <v>607.0615673062264</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971664</v>
+        <v>1406.42834510592</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765777</v>
+        <v>1406.42834510592</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>1406.42834510592</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307995</v>
+        <v>1178.438794207903</v>
       </c>
       <c r="Y10" t="n">
-        <v>776.2700148307995</v>
+        <v>957.646215064373</v>
       </c>
     </row>
     <row r="11">
@@ -5033,55 +5033,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273902</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>800.5007694647263</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579361</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373474</v>
       </c>
       <c r="W13" t="n">
-        <v>1426.218472639701</v>
+        <v>1430.931364336514</v>
       </c>
       <c r="X13" t="n">
-        <v>1198.22892174168</v>
+        <v>1202.941813438496</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>982.149234294966</v>
       </c>
     </row>
     <row r="14">
@@ -5258,25 +5258,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5361,22 +5361,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>1970.320130882545</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5492,46 +5492,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.3164745246296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>701.3802915967227</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>551.263652184387</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.757518498399</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.964939354869</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,10 +5747,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>415.5933575433587</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>267.6802639609656</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>267.6802639609656</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>267.6802639609656</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1030.918378293891</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>861.9821953659841</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>711.8655559536484</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>563.9524623712553</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>417.0625148733449</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>249.8664155882248</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1433.359422267661</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1212.566843124131</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,7 +6233,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2878.328163333972</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>2878.328163333972</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1412.248478625014</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1184.258927726996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>963.4663485834661</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345484</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384028</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,22 +6883,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,13 +7081,13 @@
         <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345484</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384028</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,25 +7330,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656811</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8143,10 +8143,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>138.3747553788853</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>25.20805284720106</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>271.1156284350099</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>234.1186584963681</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.5597436043221</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22753,22 +22753,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>159.4200788048639</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>48.39475227997768</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>279.114934257564</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.30478226780312</v>
+        <v>212.7396875474385</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>144.8013425629422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>49.43558426092565</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>67.07129414993902</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>127.2568112467072</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.6402955209709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>265.2846401830236</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1059984.266159717</v>
+        <v>1059984.266159716</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1264495.99674978</v>
+        <v>1264495.996749781</v>
       </c>
     </row>
     <row r="6">
@@ -26317,7 +26317,7 @@
         <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
         <v>161429.3199380012</v>
@@ -26329,31 +26329,31 @@
         <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="M2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="M2" t="n">
-        <v>164208.3539728568</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11234.60594742197</v>
+        <v>11234.60594742183</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820638</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26430,19 +26430,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
         <v>14216.75207685507</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="L4" t="n">
         <v>22207.61133994855</v>
@@ -26451,13 +26451,13 @@
         <v>22207.61133994853</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="O4" t="n">
         <v>22207.61133994851</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1312511.57952095</v>
+        <v>-1312871.662536668</v>
       </c>
       <c r="C6" t="n">
         <v>-37129.37343674296</v>
       </c>
       <c r="D6" t="n">
-        <v>-37129.373436743</v>
+        <v>-37129.37343674291</v>
       </c>
       <c r="E6" t="n">
-        <v>-279322.4237701161</v>
+        <v>-279357.1616955519</v>
       </c>
       <c r="F6" t="n">
-        <v>46090.03803723904</v>
+        <v>46055.30011180334</v>
       </c>
       <c r="G6" t="n">
-        <v>46090.03803723902</v>
+        <v>46055.30011180334</v>
       </c>
       <c r="H6" t="n">
-        <v>46090.03803723906</v>
+        <v>46055.30011180331</v>
       </c>
       <c r="I6" t="n">
-        <v>46090.03803723904</v>
+        <v>46055.30011180331</v>
       </c>
       <c r="J6" t="n">
-        <v>-171441.1643600384</v>
+        <v>-171475.9022854742</v>
       </c>
       <c r="K6" t="n">
-        <v>46090.03803723898</v>
+        <v>46055.30011180331</v>
       </c>
       <c r="L6" t="n">
-        <v>19408.90878536104</v>
+        <v>19408.90878536089</v>
       </c>
       <c r="M6" t="n">
-        <v>-46218.40115651891</v>
+        <v>-46218.40115651905</v>
       </c>
       <c r="N6" t="n">
-        <v>38836.62677899288</v>
+        <v>38836.62677899285</v>
       </c>
       <c r="O6" t="n">
-        <v>38836.62677899288</v>
+        <v>38836.62677899282</v>
       </c>
       <c r="P6" t="n">
-        <v>38836.62677899291</v>
+        <v>38836.62677899282</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>26.99650221781927</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>55.63165131926587</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>42.40745887656973</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>211.6282189127225</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>337.9743263566734</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.8536263024787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104.4808111661071</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>49.25547525435553</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28150,13 +28150,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,10 +29509,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29752,10 +29752,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31610,7 +31610,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837925</v>
@@ -31838,10 +31838,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>223.6976288294628</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32081,7 +32081,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>430.1367711736326</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>704.1404939038097</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>476.0648089385468</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,28 +33737,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,13 +34384,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34863,10 +34863,10 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>311.4139847019636</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
@@ -34875,7 +34875,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.25933300734326</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004592</v>
@@ -35486,10 +35486,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>81.10138438501835</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>291.5823913937584</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>572.7987818204764</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5104291586726</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,28 +37385,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38032,13 +38032,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
